--- a/Exp2022/Exp 2022.xlsx
+++ b/Exp2022/Exp 2022.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="392">
   <si>
     <t xml:space="preserve">Список участников Весенней полевой практики </t>
   </si>
@@ -1171,9 +1171,6 @@
     <t>Номер удостоверения личности</t>
   </si>
   <si>
-    <t xml:space="preserve"> II АК 827864</t>
-  </si>
-  <si>
     <t xml:space="preserve">Страхователь </t>
   </si>
   <si>
@@ -1293,16 +1290,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="182" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="183" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="184" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="185" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="185" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -1446,39 +1443,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1488,19 +1457,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1508,11 +1480,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1579,7 +1546,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1594,9 +1569,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1633,7 +1630,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,31 +1756,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,97 +1792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,37 +1810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,35 +1990,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,17 +2055,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2090,162 +2072,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2256,14 +2253,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2273,11 +2270,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -2286,7 +2283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2295,7 +2292,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2304,7 +2301,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2316,7 +2313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2334,7 +2331,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2360,12 +2357,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2395,7 +2392,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2419,7 +2416,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2444,19 +2441,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2478,7 +2475,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2593,8 +2590,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4118,7 +4115,7 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4153,464 +4150,188 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="5">
-        <v>4018281460</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="11">
-        <v>39367</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="6">
-        <v>4022050606</v>
-      </c>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="9">
-        <v>39857</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="11">
-        <v>38553</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4019397258</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="12">
-        <v>39849</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="12">
-        <v>39462</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>354</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="11">
-        <v>38137</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4018085917</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="11">
-        <v>39166</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4020831130</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="19">
-        <v>38917</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="20">
-        <v>4002634542</v>
-      </c>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="12">
-        <v>40363</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="11">
-        <v>38434</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4018287872</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="11">
-        <v>39581</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>276</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="12">
-        <v>39916</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>284</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" s="22">
-        <v>38933</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="6">
-        <v>4020668443</v>
-      </c>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="11">
-        <v>40070</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="11">
-        <v>39331</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" s="6">
-        <v>4021966729</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="19">
-        <v>38982</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18" s="20">
-        <v>4020691039</v>
-      </c>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19" s="12">
-        <v>39810</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>308</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="11">
-        <v>40195</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="12">
-        <v>39529</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="22">
-        <v>38989</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="5">
-        <v>4020684651</v>
-      </c>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="12">
-        <v>39987</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="11">
-        <v>38070</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F24" s="5">
-        <v>4018029738</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="33"/>
@@ -4630,19 +4351,19 @@
     </row>
     <row r="27" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A27" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D27" s="36"/>
     </row>
     <row r="28" s="29" customFormat="1" ht="13.2" spans="1:4">
       <c r="A28" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="C28" s="29" t="s">
         <v>357</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>358</v>
       </c>
       <c r="D28" s="36"/>
     </row>
@@ -5441,7 +5162,7 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>201</v>
@@ -5459,7 +5180,7 @@
     <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -5474,7 +5195,7 @@
     <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C3" s="7">
         <v>39367</v>
@@ -5489,7 +5210,7 @@
     <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" s="9">
         <v>39857</v>
@@ -5504,7 +5225,7 @@
     <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="11">
         <v>38553</v>
@@ -5519,7 +5240,7 @@
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" s="12">
         <v>39849</v>
@@ -5534,7 +5255,7 @@
     <row r="7" ht="15.15" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C7" s="12">
         <v>39462</v>
@@ -5549,7 +5270,7 @@
     <row r="8" ht="15.15" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" s="11">
         <v>38137</v>
@@ -5564,7 +5285,7 @@
     <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C9" s="11">
         <v>39166</v>
@@ -5579,7 +5300,7 @@
     <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C10" s="13">
         <v>38917</v>
@@ -5594,7 +5315,7 @@
     <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C11" s="12">
         <v>40363</v>
@@ -5609,7 +5330,7 @@
     <row r="12" ht="15.15" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="11">
         <v>38434</v>
@@ -5624,7 +5345,7 @@
     <row r="13" ht="15.15" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C13" s="11">
         <v>39581</v>
@@ -5639,7 +5360,7 @@
     <row r="14" ht="15.15" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C14" s="12">
         <v>39916</v>
@@ -5648,13 +5369,13 @@
         <v>9218718088</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" s="16">
         <v>38933</v>
@@ -5663,13 +5384,13 @@
         <v>9313625109</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" s="11">
         <v>40070</v>
@@ -5684,7 +5405,7 @@
     <row r="17" ht="15.15" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C17" s="11">
         <v>39331</v>
@@ -5699,7 +5420,7 @@
     <row r="18" ht="15.15" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" s="19">
         <v>38982</v>
@@ -5714,7 +5435,7 @@
     <row r="19" ht="15.15" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C19" s="12">
         <v>39810</v>
@@ -5729,7 +5450,7 @@
     <row r="20" ht="15.15" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" s="11">
         <v>40195</v>
@@ -5744,7 +5465,7 @@
     <row r="21" ht="15.15" spans="1:5">
       <c r="A21" s="21"/>
       <c r="B21" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" s="12">
         <v>39529</v>
@@ -5759,7 +5480,7 @@
     <row r="22" ht="15.15" spans="1:5">
       <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C22" s="22">
         <v>38989</v>
@@ -5774,7 +5495,7 @@
     <row r="23" ht="15.15" spans="1:5">
       <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C23" s="12">
         <v>39987</v>
@@ -5789,7 +5510,7 @@
     <row r="24" ht="15.15" spans="1:5">
       <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C24" s="11">
         <v>38070</v>
@@ -5804,7 +5525,7 @@
     <row r="25" ht="15.15" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C25" s="11">
         <v>39606</v>
@@ -5813,13 +5534,13 @@
         <v>9111291746</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" ht="15.15" spans="1:5">
       <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C26" s="11">
         <v>39485</v>
@@ -5828,7 +5549,7 @@
         <v>9312244315</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:5">
@@ -5841,7 +5562,7 @@
     <row r="28" ht="15.15" spans="1:5">
       <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -5850,7 +5571,7 @@
     <row r="29" ht="15.15" spans="1:5">
       <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -5859,7 +5580,7 @@
     <row r="30" ht="15.15" spans="1:5">
       <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -5868,7 +5589,7 @@
     <row r="31" ht="15.15" spans="1:5">
       <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="3"/>
@@ -5877,7 +5598,7 @@
     <row r="32" ht="15.15" spans="1:5">
       <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="3"/>
@@ -6745,13 +6466,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="6" ht="52.8" spans="1:3">
@@ -12020,11 +11741,11 @@
   <dimension ref="B1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -12145,7 +11866,7 @@
       <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
     </row>
-    <row r="2" spans="2:31">
+    <row r="2" ht="15.15" spans="2:31">
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
@@ -12214,7 +11935,7 @@
         <v>Атаманов Иван Валерьевич</v>
       </c>
     </row>
-    <row r="3" spans="2:31">
+    <row r="3" ht="15.15" spans="2:31">
       <c r="B3" s="31" t="s">
         <v>26</v>
       </c>
@@ -13371,7 +13092,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" ht="15.15" spans="2:33">
       <c r="B19" s="24" t="s">
         <v>102</v>
       </c>
@@ -13596,6 +13317,7 @@
       <c r="E22" s="40">
         <v>1</v>
       </c>
+      <c r="F22" s="14"/>
       <c r="N22" s="43">
         <v>320</v>
       </c>

--- a/Exp2022/Exp 2022.xlsx
+++ b/Exp2022/Exp 2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9270" tabRatio="804" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9270" tabRatio="804" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Информация для бумаг 1 часть" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,28 @@
     <sheet name="Информация для бумаг 2 часть" sheetId="18" r:id="rId7"/>
     <sheet name="Марш 2" sheetId="19" r:id="rId8"/>
     <sheet name="Маршлист 2 внешняя сторона" sheetId="20" r:id="rId9"/>
-    <sheet name="Список для страховки" sheetId="8" r:id="rId10"/>
-    <sheet name="МЧС" sheetId="9" r:id="rId11"/>
-    <sheet name="Ограничения" sheetId="17" r:id="rId12"/>
+    <sheet name="Cписок для приказа 2 часть" sheetId="21" r:id="rId10"/>
+    <sheet name="Список для страховки" sheetId="8" r:id="rId11"/>
+    <sheet name="МЧС" sheetId="9" r:id="rId12"/>
+    <sheet name="Ограничения" sheetId="17" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ftn1" localSheetId="2">'Маршлист 1 внешняя сторона'!$H$29</definedName>
     <definedName name="_ftn1" localSheetId="8">'Маршлист 2 внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="2">'Маршлист 1 внешняя сторона'!$H$26</definedName>
     <definedName name="_ftnref1" localSheetId="8">'Маршлист 2 внешняя сторона'!$H$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Список для страховки'!$B$1:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Список для страховки'!$B$1:$G$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Участники!$A$1:$Z$31</definedName>
     <definedName name="class" localSheetId="3">[1]Справочник!$H$2:$H$14</definedName>
+    <definedName name="class" localSheetId="9">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="class">[2]Справочник!$H$2:$H$14</definedName>
     <definedName name="dist" localSheetId="3">[1]Справочник!$F$2:$F$19</definedName>
+    <definedName name="dist" localSheetId="9">[1]Справочник!$F$2:$F$19</definedName>
     <definedName name="dist">[3]Справочник!$F$2:$F$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="389">
   <si>
     <t xml:space="preserve">Список участников Весенней полевой практики </t>
   </si>
@@ -649,12 +652,6 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
-  </si>
-  <si>
-    <t>Список участников полевой практики Лаборатории экологии морского бентоса (гидробиологии)</t>
-  </si>
-  <si>
-    <t>с 29.04.22 по 04.05.22</t>
   </si>
   <si>
     <t>ФИО</t>
@@ -1277,17 +1274,26 @@
   <si>
     <t>Тюпина Полина Евгеньевна</t>
   </si>
+  <si>
+    <t>Список участников Беломорской экспедиции Лаборатории экологии морского бентоса (гидробиологии)</t>
+  </si>
+  <si>
+    <t>с 6.07.22 по 20.07.22</t>
+  </si>
+  <si>
+    <t>с 3.08.22 по 25.08.22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="169" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
-    <numFmt numFmtId="170" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="171" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="172" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="166" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="167" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1658,7 +1664,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1674,20 +1680,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,7 +1702,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1705,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1740,7 +1746,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1752,7 +1758,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,24 +1788,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,13 +1814,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1833,7 +1839,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1847,12 +1853,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1871,7 +1877,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1946,8 +1952,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1965,10 +1971,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1988,6 +1994,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2021,51 +2042,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2095,6 +2071,39 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2681,10 +2690,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>31</v>
@@ -2695,7 +2704,7 @@
       <c r="F8" s="48"/>
       <c r="G8" s="17"/>
       <c r="H8" s="48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I8" s="62">
         <v>7</v>
@@ -2704,10 +2713,10 @@
         <v>89218718088</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M8" s="53">
         <v>39916</v>
@@ -2716,7 +2725,7 @@
         <v>89213290657</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P8" s="10"/>
     </row>
@@ -2841,7 +2850,7 @@
         <v>89817032760</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>88</v>
@@ -2862,13 +2871,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>213</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>215</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -2883,10 +2892,10 @@
         <v>89319803214</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M12" s="55">
         <v>39485</v>
@@ -3253,6 +3262,665 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="8" style="66"/>
+    <col min="2" max="2" width="35.7109375" style="66" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="73" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="66" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="138"/>
+      <c r="B4" s="138" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="138" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="138" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="92">
+        <v>1</v>
+      </c>
+      <c r="B5" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B5," ",'Информация для бумаг 2 часть'!C5," ",'Информация для бумаг 2 часть'!D5)</f>
+        <v>Башилов Константин Вячеславович</v>
+      </c>
+      <c r="C5" s="91">
+        <f>'Информация для бумаг 2 часть'!H5</f>
+        <v>225</v>
+      </c>
+      <c r="D5" s="91">
+        <f>'Информация для бумаг 2 часть'!I5</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="92">
+        <f>'Информация для бумаг 2 часть'!J5</f>
+        <v>89650953153</v>
+      </c>
+      <c r="F5" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K5</f>
+        <v>Пестеля д. 13-15 кв. 108</v>
+      </c>
+      <c r="G5" s="91">
+        <f>'Информация для бумаг 2 часть'!O5</f>
+        <v>4022050606</v>
+      </c>
+      <c r="H5" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L5</f>
+        <v>Батаковская Мария Павловна</v>
+      </c>
+      <c r="I5" s="91">
+        <f>'Информация для бумаг 2 часть'!N5</f>
+        <v>89052006465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="92">
+        <v>2</v>
+      </c>
+      <c r="B6" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B6," ",'Информация для бумаг 2 часть'!C6," ",'Информация для бумаг 2 часть'!D6)</f>
+        <v>Белокуров Михаил Сергеевич</v>
+      </c>
+      <c r="C6" s="91">
+        <f>'Информация для бумаг 2 часть'!H6</f>
+        <v>225</v>
+      </c>
+      <c r="D6" s="91">
+        <f>'Информация для бумаг 2 часть'!I6</f>
+        <v>11</v>
+      </c>
+      <c r="E6" s="92">
+        <f>'Информация для бумаг 2 часть'!J6</f>
+        <v>89215575265</v>
+      </c>
+      <c r="F6" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K6</f>
+        <v>ул. Ставропольская д. 12/15 кв. 46</v>
+      </c>
+      <c r="G6" s="91">
+        <f>'Информация для бумаг 2 часть'!O6</f>
+        <v>4019397258</v>
+      </c>
+      <c r="H6" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L6</f>
+        <v>Белокурова Елена Валентиновна</v>
+      </c>
+      <c r="I6" s="91">
+        <f>'Информация для бумаг 2 часть'!N6</f>
+        <v>89213205528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="92">
+        <v>3</v>
+      </c>
+      <c r="B7" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B7," ",'Информация для бумаг 2 часть'!C7," ",'Информация для бумаг 2 часть'!D7)</f>
+        <v>Бритиков Александр Ильич</v>
+      </c>
+      <c r="C7" s="91">
+        <f>'Информация для бумаг 2 часть'!H7</f>
+        <v>56</v>
+      </c>
+      <c r="D7" s="91">
+        <f>'Информация для бумаг 2 часть'!I7</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="92">
+        <f>'Информация для бумаг 2 часть'!J7</f>
+        <v>89291040939</v>
+      </c>
+      <c r="F7" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K7</f>
+        <v>Ул. Лахтинская 20-36</v>
+      </c>
+      <c r="G7" s="91" t="str">
+        <f>'Информация для бумаг 2 часть'!O7</f>
+        <v>I I-АК 703140</v>
+      </c>
+      <c r="H7" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L7</f>
+        <v>Бритикова Ольга Николаевна</v>
+      </c>
+      <c r="I7" s="91">
+        <f>'Информация для бумаг 2 часть'!N7</f>
+        <v>89052622652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="92">
+        <v>4</v>
+      </c>
+      <c r="B8" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B8," ",'Информация для бумаг 2 часть'!C8," ",'Информация для бумаг 2 часть'!D8)</f>
+        <v>Васильев Илья Игоревич</v>
+      </c>
+      <c r="C8" s="91">
+        <f>'Информация для бумаг 2 часть'!H8</f>
+        <v>58</v>
+      </c>
+      <c r="D8" s="91">
+        <f>'Информация для бумаг 2 часть'!I8</f>
+        <v>8</v>
+      </c>
+      <c r="E8" s="92">
+        <f>'Информация для бумаг 2 часть'!J8</f>
+        <v>89112625350</v>
+      </c>
+      <c r="F8" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K8</f>
+        <v>Котельникова, д. 6, к. 1, кв. 300</v>
+      </c>
+      <c r="G8" s="91">
+        <f>'Информация для бумаг 2 часть'!O8</f>
+        <v>4022067610</v>
+      </c>
+      <c r="H8" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L8</f>
+        <v>Деркач Наталья Васильевна</v>
+      </c>
+      <c r="I8" s="91">
+        <f>'Информация для бумаг 2 часть'!N8</f>
+        <v>89219703060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="92">
+        <v>5</v>
+      </c>
+      <c r="B9" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B9," ",'Информация для бумаг 2 часть'!C9," ",'Информация для бумаг 2 часть'!D9)</f>
+        <v>Ершова Татьяна Алексеевна</v>
+      </c>
+      <c r="C9" s="91">
+        <f>'Информация для бумаг 2 часть'!H9</f>
+        <v>441</v>
+      </c>
+      <c r="D9" s="91">
+        <f>'Информация для бумаг 2 часть'!I9</f>
+        <v>9</v>
+      </c>
+      <c r="E9" s="92">
+        <f>'Информация для бумаг 2 часть'!J9</f>
+        <v>89213354865</v>
+      </c>
+      <c r="F9" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K9</f>
+        <v>ул. Малая Карпатская д.17 кв 275</v>
+      </c>
+      <c r="G9" s="91">
+        <f>'Информация для бумаг 2 часть'!O9</f>
+        <v>4020831130</v>
+      </c>
+      <c r="H9" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L9</f>
+        <v>Ершова Ирина Алексеевна</v>
+      </c>
+      <c r="I9" s="91">
+        <f>'Информация для бумаг 2 часть'!N9</f>
+        <v>89522270284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="92">
+        <v>6</v>
+      </c>
+      <c r="B10" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B10," ",'Информация для бумаг 2 часть'!C10," ",'Информация для бумаг 2 часть'!D10)</f>
+        <v>Иванов Тимофей Кириллович</v>
+      </c>
+      <c r="C10" s="91">
+        <f>'Информация для бумаг 2 часть'!H10</f>
+        <v>56</v>
+      </c>
+      <c r="D10" s="91">
+        <f>'Информация для бумаг 2 часть'!I10</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="92">
+        <f>'Информация для бумаг 2 часть'!J10</f>
+        <v>89214136722</v>
+      </c>
+      <c r="F10" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K10</f>
+        <v>Каменноостровский 69-29</v>
+      </c>
+      <c r="G10" s="91">
+        <f>'Информация для бумаг 2 часть'!O10</f>
+        <v>4002634542</v>
+      </c>
+      <c r="H10" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L10</f>
+        <v>Иванова Мария Владимировна</v>
+      </c>
+      <c r="I10" s="91">
+        <f>'Информация для бумаг 2 часть'!N10</f>
+        <v>89219312294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.5">
+      <c r="A11" s="92">
+        <v>7</v>
+      </c>
+      <c r="B11" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B11," ",'Информация для бумаг 2 часть'!C11," ",'Информация для бумаг 2 часть'!D11)</f>
+        <v>Мелентьева Эмма Алексевна</v>
+      </c>
+      <c r="C11" s="91">
+        <f>'Информация для бумаг 2 часть'!H11</f>
+        <v>49</v>
+      </c>
+      <c r="D11" s="91">
+        <f>'Информация для бумаг 2 часть'!I11</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="92">
+        <f>'Информация для бумаг 2 часть'!J11</f>
+        <v>89259175393</v>
+      </c>
+      <c r="F11" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K11</f>
+        <v>Б. Разночинная 4-14</v>
+      </c>
+      <c r="G11" s="91" t="str">
+        <f>'Информация для бумаг 2 часть'!O11</f>
+        <v>III-МЮ 874452</v>
+      </c>
+      <c r="H11" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L11</f>
+        <v>Зиновьев Алексей Николаевич</v>
+      </c>
+      <c r="I11" s="91">
+        <f>'Информация для бумаг 2 часть'!N11</f>
+        <v>89165382822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="25.5">
+      <c r="A12" s="92">
+        <v>8</v>
+      </c>
+      <c r="B12" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B12," ",'Информация для бумаг 2 часть'!C12," ",'Информация для бумаг 2 часть'!D12)</f>
+        <v>Нужин Илья Мулложонович</v>
+      </c>
+      <c r="C12" s="91">
+        <f>'Информация для бумаг 2 часть'!H12</f>
+        <v>30</v>
+      </c>
+      <c r="D12" s="91">
+        <f>'Информация для бумаг 2 часть'!I12</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="92">
+        <f>'Информация для бумаг 2 часть'!J12</f>
+        <v>89219583612</v>
+      </c>
+      <c r="F12" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K12</f>
+        <v>Гаванская 2/97-36</v>
+      </c>
+      <c r="G12" s="91">
+        <f>'Информация для бумаг 2 часть'!O12</f>
+        <v>4020668443</v>
+      </c>
+      <c r="H12" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L12</f>
+        <v>Нужина Юлия Андреевна</v>
+      </c>
+      <c r="I12" s="91">
+        <f>'Информация для бумаг 2 часть'!N12</f>
+        <v>89213827100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="92">
+        <v>9</v>
+      </c>
+      <c r="B13" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B13," ",'Информация для бумаг 2 часть'!C13," ",'Информация для бумаг 2 часть'!D13)</f>
+        <v>Островский Виктор Владиславович</v>
+      </c>
+      <c r="C13" s="91">
+        <f>'Информация для бумаг 2 часть'!H13</f>
+        <v>518</v>
+      </c>
+      <c r="D13" s="91">
+        <f>'Информация для бумаг 2 часть'!I13</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="92">
+        <f>'Информация для бумаг 2 часть'!J13</f>
+        <v>89313127300</v>
+      </c>
+      <c r="F13" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K13</f>
+        <v>Парголово ул.Шишкина 58</v>
+      </c>
+      <c r="G13" s="91" t="str">
+        <f>'Информация для бумаг 2 часть'!O13</f>
+        <v>II-АК 745451</v>
+      </c>
+      <c r="H13" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L13</f>
+        <v>островская любовь юрьевна</v>
+      </c>
+      <c r="I13" s="91">
+        <f>'Информация для бумаг 2 часть'!N13</f>
+        <v>89213409406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="25.5">
+      <c r="A14" s="92">
+        <v>10</v>
+      </c>
+      <c r="B14" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B14," ",'Информация для бумаг 2 часть'!C14," ",'Информация для бумаг 2 часть'!D14)</f>
+        <v>Попов Василий Владиславович</v>
+      </c>
+      <c r="C14" s="91">
+        <f>'Информация для бумаг 2 часть'!H14</f>
+        <v>183</v>
+      </c>
+      <c r="D14" s="91">
+        <f>'Информация для бумаг 2 часть'!I14</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="92">
+        <f>'Информация для бумаг 2 часть'!J14</f>
+        <v>89610752525</v>
+      </c>
+      <c r="F14" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K14</f>
+        <v>Лиговский пр. 271-536</v>
+      </c>
+      <c r="G14" s="91">
+        <f>'Информация для бумаг 2 часть'!O14</f>
+        <v>4021966729</v>
+      </c>
+      <c r="H14" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L14</f>
+        <v>Попова Юлия Юрьевна</v>
+      </c>
+      <c r="I14" s="91">
+        <f>'Информация для бумаг 2 часть'!N14</f>
+        <v>89610717771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="92">
+        <v>11</v>
+      </c>
+      <c r="B15" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B15," ",'Информация для бумаг 2 часть'!C15," ",'Информация для бумаг 2 часть'!D15)</f>
+        <v>Сайчик Мария Владимировна</v>
+      </c>
+      <c r="C15" s="91">
+        <f>'Информация для бумаг 2 часть'!H15</f>
+        <v>586</v>
+      </c>
+      <c r="D15" s="91">
+        <f>'Информация для бумаг 2 часть'!I15</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="92">
+        <f>'Информация для бумаг 2 часть'!J15</f>
+        <v>89818723635</v>
+      </c>
+      <c r="F15" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K15</f>
+        <v>Кораблестроителей 39-871</v>
+      </c>
+      <c r="G15" s="91">
+        <f>'Информация для бумаг 2 часть'!O15</f>
+        <v>4020691039</v>
+      </c>
+      <c r="H15" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L15</f>
+        <v>Сайчик Татьяна Борисовна</v>
+      </c>
+      <c r="I15" s="91">
+        <f>'Информация для бумаг 2 часть'!N15</f>
+        <v>89818417041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="92">
+        <v>12</v>
+      </c>
+      <c r="B16" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B16," ",'Информация для бумаг 2 часть'!C16," ",'Информация для бумаг 2 часть'!D16)</f>
+        <v>Тюпин Арсений Евгеньевич</v>
+      </c>
+      <c r="C16" s="91">
+        <f>'Информация для бумаг 2 часть'!H16</f>
+        <v>555</v>
+      </c>
+      <c r="D16" s="91">
+        <f>'Информация для бумаг 2 часть'!I16</f>
+        <v>7</v>
+      </c>
+      <c r="E16" s="92">
+        <f>'Информация для бумаг 2 часть'!J16</f>
+        <v>89200043637</v>
+      </c>
+      <c r="F16" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K16</f>
+        <v>Комендантский д.23 к.1 кв 112</v>
+      </c>
+      <c r="G16" s="91" t="str">
+        <f>'Информация для бумаг 2 часть'!O16</f>
+        <v xml:space="preserve">III - ТН №774802 </v>
+      </c>
+      <c r="H16" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L16</f>
+        <v>Тюпина Полина Евгеньевна</v>
+      </c>
+      <c r="I16" s="91">
+        <f>'Информация для бумаг 2 часть'!N16</f>
+        <v>89914876053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="92">
+        <v>13</v>
+      </c>
+      <c r="B17" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B17," ",'Информация для бумаг 2 часть'!C17," ",'Информация для бумаг 2 часть'!D17)</f>
+        <v>Шеламова Виктория Сергеевна</v>
+      </c>
+      <c r="C17" s="91">
+        <f>'Информация для бумаг 2 часть'!H17</f>
+        <v>471</v>
+      </c>
+      <c r="D17" s="91">
+        <f>'Информация для бумаг 2 часть'!I17</f>
+        <v>8</v>
+      </c>
+      <c r="E17" s="92">
+        <f>'Информация для бумаг 2 часть'!J17</f>
+        <v>89817032760</v>
+      </c>
+      <c r="F17" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K17</f>
+        <v>Парголово, Приозерское шоссе ,  д.16 к.4 кв.46</v>
+      </c>
+      <c r="G17" s="91">
+        <f>'Информация для бумаг 2 часть'!O17</f>
+        <v>4022149794</v>
+      </c>
+      <c r="H17" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L17</f>
+        <v>Шеламова Галина Анатольевна</v>
+      </c>
+      <c r="I17" s="91">
+        <f>'Информация для бумаг 2 часть'!N17</f>
+        <v>89111407222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="25.5">
+      <c r="A18" s="92">
+        <v>14</v>
+      </c>
+      <c r="B18" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B18," ",'Информация для бумаг 2 часть'!C18," ",'Информация для бумаг 2 часть'!D18)</f>
+        <v>Шилонцев Андрей Александрович</v>
+      </c>
+      <c r="C18" s="91">
+        <f>'Информация для бумаг 2 часть'!H18</f>
+        <v>320</v>
+      </c>
+      <c r="D18" s="91">
+        <f>'Информация для бумаг 2 часть'!I18</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!J18</f>
+        <v>89217627582</v>
+      </c>
+      <c r="F18" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K18</f>
+        <v>Ленинский пр. 117-1-603</v>
+      </c>
+      <c r="G18" s="91">
+        <f>'Информация для бумаг 2 часть'!O18</f>
+        <v>4020684651</v>
+      </c>
+      <c r="H18" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L18</f>
+        <v>Шилонцева Татьяна Александровна</v>
+      </c>
+      <c r="I18" s="91" t="str">
+        <f>'Информация для бумаг 2 часть'!N18</f>
+        <v>89213026506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25.5">
+      <c r="A19" s="92">
+        <v>15</v>
+      </c>
+      <c r="B19" s="92" t="str">
+        <f>CONCATENATE('Информация для бумаг 2 часть'!B19," ",'Информация для бумаг 2 часть'!C19," ",'Информация для бумаг 2 часть'!D19)</f>
+        <v>Шишкина Анна Андреевна</v>
+      </c>
+      <c r="C19" s="91">
+        <f>'Информация для бумаг 2 часть'!H19</f>
+        <v>43</v>
+      </c>
+      <c r="D19" s="91">
+        <f>'Информация для бумаг 2 часть'!I19</f>
+        <v>7</v>
+      </c>
+      <c r="E19" s="92">
+        <f>'Информация для бумаг 2 часть'!J19</f>
+        <v>89819793731</v>
+      </c>
+      <c r="F19" s="139" t="str">
+        <f>'Информация для бумаг 2 часть'!K19</f>
+        <v>Проспект Сизова 14 кв.90</v>
+      </c>
+      <c r="G19" s="91" t="str">
+        <f>'Информация для бумаг 2 часть'!O19</f>
+        <v>II АК 731804</v>
+      </c>
+      <c r="H19" s="92" t="str">
+        <f>'Информация для бумаг 2 часть'!L19</f>
+        <v>Шишкина  Ирина Викторовна</v>
+      </c>
+      <c r="I19" s="91">
+        <f>'Информация для бумаг 2 часть'!N19</f>
+        <v>89118110171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="F21" s="177"/>
+      <c r="I21" s="73"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="66" t="str">
+        <f>'Информация для бумаг 1 часть'!C25</f>
+        <v>Хайтов Вадим Михайлович</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="66" t="str">
+        <f>'Информация для бумаг 1 часть'!C26</f>
+        <v>Котельникова Валентина Сергеевна</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G124"/>
   <sheetViews>
@@ -3274,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>4</v>
@@ -3286,18 +3954,18 @@
         <v>6</v>
       </c>
       <c r="E1" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="47" t="s">
         <v>204</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>19</v>
@@ -3312,7 +3980,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G2" s="49">
         <v>4018281460</v>
@@ -3320,7 +3988,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>51</v>
@@ -3335,7 +4003,7 @@
         <v>38917</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G3" s="52">
         <v>4002634542</v>
@@ -3343,7 +4011,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>56</v>
@@ -3358,7 +4026,7 @@
         <v>40363</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>62</v>
@@ -3366,13 +4034,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>31</v>
@@ -3381,15 +4049,15 @@
         <v>39916</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>74</v>
@@ -3404,7 +4072,7 @@
         <v>38982</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G6" s="52">
         <v>4020691039</v>
@@ -3412,7 +4080,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>79</v>
@@ -3427,7 +4095,7 @@
         <v>40195</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G7" s="49" t="s">
         <v>84</v>
@@ -3435,7 +4103,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>85</v>
@@ -3450,7 +4118,7 @@
         <v>39529</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G8" s="49">
         <v>4022149794</v>
@@ -3458,22 +4126,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>213</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>215</v>
       </c>
       <c r="E9" s="55">
         <v>39485</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G9" s="56">
         <v>4022119129</v>
@@ -3488,7 +4156,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B11" s="57" t="s">
         <v>25</v>
@@ -3503,7 +4171,7 @@
         <v>39367</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G11" s="59">
         <v>4022050606</v>
@@ -3511,7 +4179,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>32</v>
@@ -3526,7 +4194,7 @@
         <v>38553</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G12" s="49">
         <v>4019397258</v>
@@ -3534,7 +4202,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>37</v>
@@ -3549,7 +4217,7 @@
         <v>39849</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G13" s="60" t="s">
         <v>42</v>
@@ -3557,13 +4225,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>216</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>218</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>31</v>
@@ -3572,7 +4240,7 @@
         <v>39462</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G14" s="56">
         <v>4022067610</v>
@@ -3580,7 +4248,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>46</v>
@@ -3595,7 +4263,7 @@
         <v>39166</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G15" s="49">
         <v>4020831130</v>
@@ -3603,7 +4271,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>51</v>
@@ -3618,7 +4286,7 @@
         <v>38917</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="52">
         <v>4002634542</v>
@@ -3626,45 +4294,45 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B17" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>219</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>221</v>
       </c>
       <c r="E17" s="55">
         <v>39581</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>218</v>
-      </c>
       <c r="D18" s="50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E18" s="61">
         <v>38933</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G18" s="49">
         <v>4020668443</v>
@@ -3672,7 +4340,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>65</v>
@@ -3687,7 +4355,7 @@
         <v>40070</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>70</v>
@@ -3695,7 +4363,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>71</v>
@@ -3710,7 +4378,7 @@
         <v>39331</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G20" s="49">
         <v>4021966729</v>
@@ -3718,7 +4386,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>74</v>
@@ -3733,7 +4401,7 @@
         <v>38982</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G21" s="52">
         <v>4020691039</v>
@@ -3741,30 +4409,30 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B22" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="48" t="s">
         <v>225</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>227</v>
       </c>
       <c r="E22" s="53">
         <v>39810</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>85</v>
@@ -3779,7 +4447,7 @@
         <v>39529</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G23" s="49">
         <v>4022149794</v>
@@ -3787,7 +4455,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>89</v>
@@ -3802,7 +4470,7 @@
         <v>38989</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G24" s="59">
         <v>4020684651</v>
@@ -3810,7 +4478,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>93</v>
@@ -3825,7 +4493,7 @@
         <v>39987</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>98</v>
@@ -3841,20 +4509,20 @@
     </row>
     <row r="27" spans="1:7" s="43" customFormat="1" ht="12.75">
       <c r="B27" s="64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E27" s="65"/>
       <c r="G27" s="65"/>
     </row>
     <row r="28" spans="1:7" s="43" customFormat="1" ht="12.75">
       <c r="B28" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>230</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>232</v>
       </c>
       <c r="E28" s="65"/>
       <c r="G28" s="65"/>
@@ -4632,7 +5300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E147"/>
   <sheetViews>
@@ -4651,19 +5319,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4671,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
@@ -4685,10 +5353,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C3" s="7">
         <v>38917</v>
@@ -4702,10 +5370,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="C4" s="8">
         <v>40363</v>
@@ -4719,10 +5387,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C5" s="8">
         <v>39916</v>
@@ -4731,15 +5399,15 @@
         <v>9218718088</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C6" s="9">
         <v>38982</v>
@@ -4753,10 +5421,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C7" s="10">
         <v>40195</v>
@@ -4770,10 +5438,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C8" s="8">
         <v>39529</v>
@@ -4782,15 +5450,15 @@
         <v>9817032760</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C9" s="10">
         <v>39485</v>
@@ -4799,7 +5467,7 @@
         <v>9319803214</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4811,10 +5479,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C11" s="8">
         <v>39529</v>
@@ -4823,15 +5491,15 @@
         <v>9817032760</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C12" s="10">
         <v>39367</v>
@@ -4845,10 +5513,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="C13" s="10">
         <v>38553</v>
@@ -4862,10 +5530,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C14" s="8">
         <v>39849</v>
@@ -4879,10 +5547,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C15" s="8">
         <v>39462</v>
@@ -4891,15 +5559,15 @@
         <v>9112625350</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C16" s="10">
         <v>39166</v>
@@ -4913,10 +5581,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C17" s="10">
         <v>39581</v>
@@ -4925,15 +5593,15 @@
         <v>9259175393</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C18" s="11">
         <v>38933</v>
@@ -4942,15 +5610,15 @@
         <v>9219583612</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C19" s="10">
         <v>40070</v>
@@ -4959,15 +5627,15 @@
         <v>9313127300</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C20" s="10">
         <v>39331</v>
@@ -4976,15 +5644,15 @@
         <v>9610752525</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C21" s="8">
         <v>39810</v>
@@ -4993,15 +5661,15 @@
         <v>9200043637</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C22" s="12">
         <v>38989</v>
@@ -5015,10 +5683,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C23" s="8">
         <v>39987</v>
@@ -5033,7 +5701,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
@@ -5042,7 +5710,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
@@ -5079,7 +5747,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -5088,7 +5756,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -5097,7 +5765,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -5106,7 +5774,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="3"/>
@@ -5115,7 +5783,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="3"/>
@@ -5920,7 +6588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5943,7 +6611,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5954,7 +6622,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5">
@@ -5965,7 +6633,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="38.25">
@@ -5976,18 +6644,18 @@
         <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -5998,7 +6666,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6037,23 +6705,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
     </row>
     <row r="2" spans="1:14" ht="51.95" customHeight="1">
       <c r="A2" s="84" t="s">
@@ -6123,7 +6791,7 @@
       <c r="G3" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="154" t="s">
+      <c r="H3" s="143" t="s">
         <v>125</v>
       </c>
       <c r="I3" s="94">
@@ -6170,7 +6838,7 @@
       <c r="G4" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="155"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="88">
         <v>2</v>
       </c>
@@ -6186,7 +6854,7 @@
       </c>
       <c r="N4" s="112"/>
     </row>
-    <row r="5" spans="1:14" s="76" customFormat="1" ht="24">
+    <row r="5" spans="1:14" s="76" customFormat="1" ht="15.75">
       <c r="A5" s="88">
         <v>3</v>
       </c>
@@ -6213,7 +6881,7 @@
       <c r="G5" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="155"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="94">
         <v>3</v>
       </c>
@@ -6258,7 +6926,7 @@
       <c r="G6" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="155"/>
+      <c r="H6" s="144"/>
       <c r="I6" s="94"/>
       <c r="J6" s="109"/>
       <c r="K6" s="110"/>
@@ -6293,7 +6961,7 @@
       <c r="G7" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="155"/>
+      <c r="H7" s="144"/>
       <c r="I7" s="88"/>
       <c r="J7" s="109"/>
       <c r="K7" s="110"/>
@@ -6328,10 +6996,10 @@
       <c r="G8" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="155"/>
+      <c r="H8" s="144"/>
       <c r="N8" s="114"/>
     </row>
-    <row r="9" spans="1:14" s="76" customFormat="1">
+    <row r="9" spans="1:14" s="76" customFormat="1" ht="24">
       <c r="A9" s="88">
         <v>7</v>
       </c>
@@ -6358,7 +7026,7 @@
       <c r="G9" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="155"/>
+      <c r="H9" s="144"/>
       <c r="I9" s="94"/>
       <c r="J9" s="94"/>
       <c r="K9" s="94"/>
@@ -6392,7 +7060,7 @@
       <c r="G10" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="155"/>
+      <c r="H10" s="144"/>
       <c r="I10" s="94"/>
       <c r="J10" s="94"/>
       <c r="K10" s="94"/>
@@ -6426,7 +7094,7 @@
       <c r="G11" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="155"/>
+      <c r="H11" s="144"/>
       <c r="I11" s="94"/>
       <c r="J11" s="94"/>
       <c r="K11" s="94"/>
@@ -6460,7 +7128,7 @@
       <c r="G12" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="155"/>
+      <c r="H12" s="144"/>
       <c r="I12" s="94"/>
       <c r="J12" s="94"/>
       <c r="K12" s="94"/>
@@ -6494,7 +7162,7 @@
       <c r="G13" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="155"/>
+      <c r="H13" s="144"/>
       <c r="I13" s="94"/>
       <c r="J13" s="94"/>
       <c r="K13" s="94"/>
@@ -6528,7 +7196,7 @@
       <c r="G14" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="155"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="94"/>
       <c r="J14" s="94"/>
       <c r="K14" s="94"/>
@@ -6562,7 +7230,7 @@
       <c r="G15" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="155"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="94"/>
       <c r="J15" s="94"/>
       <c r="K15" s="94"/>
@@ -6596,14 +7264,14 @@
       <c r="G16" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="155"/>
+      <c r="H16" s="144"/>
       <c r="I16" s="94"/>
       <c r="J16" s="94"/>
       <c r="K16" s="94"/>
       <c r="L16" s="94"/>
       <c r="M16" s="94"/>
     </row>
-    <row r="17" spans="1:13" s="76" customFormat="1" ht="24">
+    <row r="17" spans="1:13" s="76" customFormat="1">
       <c r="A17" s="88">
         <v>15</v>
       </c>
@@ -6630,7 +7298,7 @@
       <c r="G17" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="155"/>
+      <c r="H17" s="144"/>
       <c r="I17" s="94"/>
       <c r="J17" s="94"/>
       <c r="K17" s="94"/>
@@ -6664,7 +7332,7 @@
       <c r="G18" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="155"/>
+      <c r="H18" s="144"/>
       <c r="I18" s="94"/>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
@@ -6698,14 +7366,14 @@
       <c r="G19" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="155"/>
+      <c r="H19" s="144"/>
       <c r="I19" s="94"/>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
       <c r="L19" s="94"/>
       <c r="M19" s="94"/>
     </row>
-    <row r="20" spans="1:13" s="76" customFormat="1" ht="24">
+    <row r="20" spans="1:13" s="76" customFormat="1">
       <c r="A20" s="94">
         <v>18</v>
       </c>
@@ -6732,7 +7400,7 @@
       <c r="G20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="155"/>
+      <c r="H20" s="144"/>
       <c r="I20" s="94"/>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
@@ -6741,15 +7409,15 @@
     </row>
     <row r="21" spans="1:13" s="76" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="88"/>
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
       <c r="G21" s="93"/>
-      <c r="H21" s="155"/>
+      <c r="H21" s="144"/>
       <c r="I21" s="94"/>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -6781,7 +7449,7 @@
       <c r="G22" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="155"/>
+      <c r="H22" s="144"/>
       <c r="I22" s="94"/>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -6813,7 +7481,7 @@
       <c r="G23" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="155"/>
+      <c r="H23" s="144"/>
       <c r="I23" s="94"/>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -6845,7 +7513,7 @@
       <c r="G24" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="155"/>
+      <c r="H24" s="144"/>
       <c r="I24" s="94"/>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -6877,7 +7545,7 @@
       <c r="G25" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="155"/>
+      <c r="H25" s="144"/>
       <c r="I25" s="94"/>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -6909,7 +7577,7 @@
       <c r="G26" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="155"/>
+      <c r="H26" s="144"/>
       <c r="I26" s="94"/>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -6919,7 +7587,7 @@
     <row r="27" spans="1:13" s="76" customFormat="1" ht="12">
       <c r="A27" s="98"/>
       <c r="G27" s="99"/>
-      <c r="H27" s="155"/>
+      <c r="H27" s="144"/>
       <c r="I27" s="94"/>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -6933,13 +7601,13 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C28" s="90"/>
-      <c r="D28" s="145" t="s">
+      <c r="D28" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="146"/>
+      <c r="E28" s="151"/>
       <c r="F28" s="101"/>
       <c r="G28" s="93"/>
-      <c r="H28" s="155"/>
+      <c r="H28" s="144"/>
       <c r="I28" s="94"/>
       <c r="J28" s="94"/>
       <c r="K28" s="94"/>
@@ -6953,20 +7621,20 @@
         <v>Котельникова Валентина Сергеевна</v>
       </c>
       <c r="C29" s="90"/>
-      <c r="D29" s="147" t="s">
+      <c r="D29" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="148"/>
+      <c r="E29" s="153"/>
       <c r="F29" s="101"/>
       <c r="G29" s="93"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="149" t="s">
+      <c r="H29" s="144"/>
+      <c r="I29" s="154" t="s">
         <v>136</v>
       </c>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="151"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="156"/>
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="102" t="s">
@@ -6978,7 +7646,7 @@
       <c r="E30" s="103"/>
       <c r="F30" s="103"/>
       <c r="G30" s="103"/>
-      <c r="H30" s="156"/>
+      <c r="H30" s="145"/>
       <c r="I30" s="92"/>
       <c r="J30" s="92"/>
       <c r="K30" s="92"/>
@@ -6986,10 +7654,10 @@
       <c r="M30" s="92"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="153"/>
+      <c r="B31" s="142"/>
       <c r="C31" s="66">
         <f>'Информация для бумаг 1 часть'!C30</f>
         <v>0</v>
@@ -7077,87 +7745,87 @@
       <c r="A1" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
       <c r="G2" s="69"/>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="168"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
       <c r="G4" s="69"/>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="168"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
     </row>
     <row r="6" spans="1:14" ht="18.75">
-      <c r="A6" s="168"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="H6" s="157" t="s">
+      <c r="A6" s="158"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="H6" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="70" t="s">
@@ -7168,27 +7836,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="168" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
       <c r="H8" s="71" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="164"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="174"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="164"/>
       <c r="H9" s="68" t="s">
         <v>153</v>
       </c>
@@ -7200,35 +7868,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="169" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
       <c r="H10" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="159" t="str">
+      <c r="J10" s="175" t="str">
         <f>'Информация для бумаг 1 часть'!C3</f>
         <v>Санкт-Петербург - Кандалакша-Лувеньга-Колвица-Умба-Лувеньга-Кандалакша- Санкт-Петербург</v>
       </c>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="166"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
       <c r="H11" s="73" t="s">
         <v>158</v>
       </c>
@@ -7244,17 +7912,17 @@
       <c r="A12" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="171" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="H12" s="162" t="s">
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="H12" s="172" t="s">
         <v>162</v>
       </c>
-      <c r="I12" s="162"/>
+      <c r="I12" s="172"/>
       <c r="J12" s="80">
         <f>'Информация для бумаг 1 часть'!C2</f>
         <v>44748</v>
@@ -7268,42 +7936,42 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="168" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="166" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="166"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
       <c r="H14" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="163" t="str">
+      <c r="K14" s="173" t="str">
         <f>'Информация для бумаг 1 часть'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="166"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
       <c r="K15" s="73" t="s">
         <v>104</v>
       </c>
@@ -7313,68 +7981,68 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="170" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="165" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
       <c r="H16" s="76" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="166"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
       <c r="H17" s="77" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="166"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
+      <c r="A18" s="170"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
     </row>
     <row r="19" spans="1:14" ht="15.75">
-      <c r="A19" s="166"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
+      <c r="A19" s="170"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
       <c r="H19" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="163" t="str">
+      <c r="K19" s="173" t="str">
         <f>'Информация для бумаг 1 часть'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="165">
+      <c r="A20" s="169">
         <v>44761</v>
       </c>
-      <c r="B20" s="175" t="s">
+      <c r="B20" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
       <c r="K20" s="73" t="s">
         <v>104</v>
       </c>
@@ -7384,46 +8052,46 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="166"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A22" s="166"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="H22" s="157" t="s">
+      <c r="A22" s="170"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="H22" s="167" t="s">
         <v>173</v>
       </c>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A23" s="166"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="H23" s="157" t="s">
+      <c r="A23" s="170"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="H23" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
     </row>
     <row r="25" spans="1:14" ht="15.75">
       <c r="H25" s="75" t="s">
@@ -7490,11 +8158,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B13:F15"/>
-    <mergeCell ref="B16:F19"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -7507,11 +8175,11 @@
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F15"/>
+    <mergeCell ref="B16:F19"/>
   </mergeCells>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
@@ -7524,17 +8192,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="66"/>
     <col min="2" max="2" width="35.7109375" style="66" customWidth="1"/>
-    <col min="3" max="4" width="8" style="66"/>
+    <col min="3" max="3" width="10.28515625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="8" style="66"/>
     <col min="5" max="5" width="12.85546875" style="66"/>
     <col min="6" max="6" width="27.42578125" style="66" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="73" customWidth="1"/>
@@ -7545,18 +8214,18 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="66" t="s">
-        <v>185</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="66" t="s">
-        <v>186</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="138"/>
       <c r="B4" s="138" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="138" t="s">
         <v>10</v>
@@ -7568,16 +8237,16 @@
         <v>104</v>
       </c>
       <c r="F4" s="138" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G4" s="91" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7654,7 +8323,7 @@
         <v>89219312294</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.5">
+    <row r="7" spans="1:9">
       <c r="A7" s="92">
         <v>3</v>
       </c>
@@ -7691,7 +8360,7 @@
         <v>89213323160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.5">
+    <row r="8" spans="1:9">
       <c r="A8" s="92">
         <v>4</v>
       </c>
@@ -7802,7 +8471,7 @@
         <v>89657737525</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="25.5">
       <c r="A11" s="92">
         <v>7</v>
       </c>
@@ -7839,7 +8508,7 @@
         <v>89111407222</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="92">
         <v>8</v>
       </c>
@@ -7877,407 +8546,37 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="92">
-        <v>9</v>
-      </c>
-      <c r="B13" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B13," ",'Информация для бумаг 1 часть'!C13," ",'Информация для бумаг 1 часть'!D13)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C13" s="91">
-        <f>'Информация для бумаг 1 часть'!H13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="91">
-        <f>'Информация для бумаг 1 часть'!I13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="92">
-        <f>'Информация для бумаг 1 часть'!J13</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="139">
-        <f>'Информация для бумаг 1 часть'!K13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="91">
-        <f>'Информация для бумаг 1 часть'!O13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="92">
-        <f>'Информация для бумаг 1 часть'!L13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="91">
-        <f>'Информация для бумаг 1 часть'!N13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="25.5">
-      <c r="A14" s="92">
-        <v>10</v>
-      </c>
-      <c r="B14" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B14," ",'Информация для бумаг 1 часть'!C14," ",'Информация для бумаг 1 часть'!D14)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C14" s="91">
-        <f>'Информация для бумаг 1 часть'!H14</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="91">
-        <f>'Информация для бумаг 1 часть'!I14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="92">
-        <f>'Информация для бумаг 1 часть'!J14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="139">
-        <f>'Информация для бумаг 1 часть'!K14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="91">
-        <f>'Информация для бумаг 1 часть'!O14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="92">
-        <f>'Информация для бумаг 1 часть'!L14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="91">
-        <f>'Информация для бумаг 1 часть'!N14</f>
-        <v>0</v>
-      </c>
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="92">
-        <v>11</v>
-      </c>
-      <c r="B15" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B15," ",'Информация для бумаг 1 часть'!C15," ",'Информация для бумаг 1 часть'!D15)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C15" s="91">
-        <f>'Информация для бумаг 1 часть'!H15</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="91">
-        <f>'Информация для бумаг 1 часть'!I15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="92">
-        <f>'Информация для бумаг 1 часть'!J15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="139">
-        <f>'Информация для бумаг 1 часть'!K15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="91">
-        <f>'Информация для бумаг 1 часть'!O15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="92">
-        <f>'Информация для бумаг 1 часть'!L15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="91">
-        <f>'Информация для бумаг 1 часть'!N15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="92">
-        <v>12</v>
-      </c>
-      <c r="B16" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B16," ",'Информация для бумаг 1 часть'!C16," ",'Информация для бумаг 1 часть'!D16)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C16" s="91">
-        <f>'Информация для бумаг 1 часть'!H16</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="91">
-        <f>'Информация для бумаг 1 часть'!I16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="92">
-        <f>'Информация для бумаг 1 часть'!J16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="139">
-        <f>'Информация для бумаг 1 часть'!K16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="91">
-        <f>'Информация для бумаг 1 часть'!O16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="92">
-        <f>'Информация для бумаг 1 часть'!L16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="91">
-        <f>'Информация для бумаг 1 часть'!N16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="92">
-        <v>13</v>
-      </c>
-      <c r="B17" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B17," ",'Информация для бумаг 1 часть'!C17," ",'Информация для бумаг 1 часть'!D17)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C17" s="91">
-        <f>'Информация для бумаг 1 часть'!H17</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="91">
-        <f>'Информация для бумаг 1 часть'!I17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="92">
-        <f>'Информация для бумаг 1 часть'!J17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="139">
-        <f>'Информация для бумаг 1 часть'!K17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="91">
-        <f>'Информация для бумаг 1 часть'!O17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="92">
-        <f>'Информация для бумаг 1 часть'!L17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="91">
-        <f>'Информация для бумаг 1 часть'!N17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="92">
-        <v>14</v>
-      </c>
-      <c r="B18" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B18," ",'Информация для бумаг 1 часть'!C18," ",'Информация для бумаг 1 часть'!D18)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C18" s="91">
-        <f>'Информация для бумаг 1 часть'!H18</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="91">
-        <f>'Информация для бумаг 1 часть'!I18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="92">
-        <f>'Информация для бумаг 1 часть'!J18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="139">
-        <f>'Информация для бумаг 1 часть'!K18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="91">
-        <f>'Информация для бумаг 1 часть'!O18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="92">
-        <f>'Информация для бумаг 1 часть'!L18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="91">
-        <f>'Информация для бумаг 1 часть'!N18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="38.25">
-      <c r="A19" s="92">
-        <v>15</v>
-      </c>
-      <c r="B19" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B19," ",'Информация для бумаг 1 часть'!C19," ",'Информация для бумаг 1 часть'!D19)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C19" s="91">
-        <f>'Информация для бумаг 1 часть'!H19</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="91">
-        <f>'Информация для бумаг 1 часть'!I19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="92">
-        <f>'Информация для бумаг 1 часть'!J19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="139">
-        <f>'Информация для бумаг 1 часть'!K19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="91">
-        <f>'Информация для бумаг 1 часть'!O19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="92">
-        <f>'Информация для бумаг 1 часть'!L19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="91">
-        <f>'Информация для бумаг 1 часть'!N19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="92">
-        <v>16</v>
-      </c>
-      <c r="B20" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B20," ",'Информация для бумаг 1 часть'!C20," ",'Информация для бумаг 1 часть'!D20)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C20" s="91">
-        <f>'Информация для бумаг 1 часть'!H20</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="91">
-        <f>'Информация для бумаг 1 часть'!I20</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="92">
-        <f>'Информация для бумаг 1 часть'!J20</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="139">
-        <f>'Информация для бумаг 1 часть'!K20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="91">
-        <f>'Информация для бумаг 1 часть'!O20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="92">
-        <f>'Информация для бумаг 1 часть'!L20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="91">
-        <f>'Информация для бумаг 1 часть'!N20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="92">
-        <v>17</v>
-      </c>
-      <c r="B21" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B21," ",'Информация для бумаг 1 часть'!C21," ",'Информация для бумаг 1 часть'!D21)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C21" s="91">
-        <f>'Информация для бумаг 1 часть'!H21</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="91">
-        <f>'Информация для бумаг 1 часть'!I21</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="92">
-        <f>'Информация для бумаг 1 часть'!J21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="139">
-        <f>'Информация для бумаг 1 часть'!K21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="91">
-        <f>'Информация для бумаг 1 часть'!O21</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="92">
-        <f>'Информация для бумаг 1 часть'!L21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="91">
-        <f>'Информация для бумаг 1 часть'!N21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="25.5">
-      <c r="A22" s="92">
-        <v>18</v>
-      </c>
-      <c r="B22" s="92" t="str">
-        <f>CONCATENATE('Информация для бумаг 1 часть'!B22," ",'Информация для бумаг 1 часть'!C22," ",'Информация для бумаг 1 часть'!D22)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="C22" s="91">
-        <f>'Информация для бумаг 1 часть'!H22</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="91">
-        <f>'Информация для бумаг 1 часть'!I22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="92">
-        <f>'Информация для бумаг 1 часть'!J22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="139">
-        <f>'Информация для бумаг 1 часть'!K22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="91">
-        <f>'Информация для бумаг 1 часть'!O22</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="92">
-        <f>'Информация для бумаг 1 часть'!L22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="91">
-        <f>'Информация для бумаг 1 часть'!N22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="66" t="str">
+      <c r="B15" s="66" t="str">
         <f>'Информация для бумаг 1 часть'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C15" s="66" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="66" t="str">
+    <row r="17" spans="2:3">
+      <c r="B17" s="66" t="str">
         <f>'Информация для бумаг 1 часть'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C27" s="66" t="s">
-        <v>191</v>
+      <c r="C17" s="66" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -8287,7 +8586,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
@@ -8301,18 +8600,18 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="136" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="82.5" customHeight="1">
       <c r="A2" s="92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="85" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D2" s="85" t="s">
         <v>8</v>
@@ -8328,7 +8627,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3" s="137">
         <f>'Информация для бумаг 1 часть'!F5</f>
@@ -8345,7 +8644,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="137">
         <f>'Информация для бумаг 1 часть'!F6</f>
@@ -8362,7 +8661,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" s="137">
         <f>'Информация для бумаг 1 часть'!F7</f>
@@ -8379,7 +8678,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="137">
         <f>'Информация для бумаг 1 часть'!F8</f>
@@ -8396,7 +8695,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D7" s="137">
         <f>'Информация для бумаг 1 часть'!F9</f>
@@ -8413,7 +8712,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="137">
         <f>'Информация для бумаг 1 часть'!F10</f>
@@ -8430,7 +8729,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" s="137">
         <f>'Информация для бумаг 1 часть'!F11</f>
@@ -8447,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10" s="137">
         <f>'Информация для бумаг 1 часть'!F12</f>
@@ -8455,16 +8754,16 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B13</f>
-        <v xml:space="preserve">  </v>
+      <c r="A11" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B11" s="137">
         <f>'Информация для бумаг 1 часть'!E13</f>
         <v>0</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11" s="137">
         <f>'Информация для бумаг 1 часть'!F13</f>
@@ -8472,16 +8771,16 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B14</f>
-        <v xml:space="preserve">  </v>
+      <c r="A12" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B12" s="137">
         <f>'Информация для бумаг 1 часть'!E14</f>
         <v>0</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" s="137">
         <f>'Информация для бумаг 1 часть'!F14</f>
@@ -8489,16 +8788,16 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B15</f>
-        <v xml:space="preserve">  </v>
+      <c r="A13" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B13" s="137">
         <f>'Информация для бумаг 1 часть'!E15</f>
         <v>0</v>
       </c>
       <c r="C13" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D13" s="137">
         <f>'Информация для бумаг 1 часть'!F15</f>
@@ -8506,16 +8805,16 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B16</f>
-        <v xml:space="preserve">  </v>
+      <c r="A14" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B14" s="137">
         <f>'Информация для бумаг 1 часть'!E16</f>
         <v>0</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D14" s="137">
         <f>'Информация для бумаг 1 часть'!F16</f>
@@ -8523,16 +8822,16 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B17</f>
-        <v xml:space="preserve">  </v>
+      <c r="A15" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B15" s="137">
         <f>'Информация для бумаг 1 часть'!E17</f>
         <v>0</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" s="137">
         <f>'Информация для бумаг 1 часть'!F17</f>
@@ -8540,16 +8839,16 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B18</f>
-        <v xml:space="preserve">  </v>
+      <c r="A16" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B16" s="137">
         <f>'Информация для бумаг 1 часть'!E18</f>
         <v>0</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" s="137">
         <f>'Информация для бумаг 1 часть'!F18</f>
@@ -8557,16 +8856,16 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B19</f>
-        <v xml:space="preserve">  </v>
+      <c r="A17" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B17" s="137">
         <f>'Информация для бумаг 1 часть'!E19</f>
         <v>0</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" s="137">
         <f>'Информация для бумаг 1 часть'!F19</f>
@@ -8574,16 +8873,16 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B20</f>
-        <v xml:space="preserve">  </v>
+      <c r="A18" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B18" s="137">
         <f>'Информация для бумаг 1 часть'!E20</f>
         <v>0</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D18" s="137">
         <f>'Информация для бумаг 1 часть'!F20</f>
@@ -8591,16 +8890,16 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B21</f>
-        <v xml:space="preserve">  </v>
+      <c r="A19" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B19" s="137">
         <f>'Информация для бумаг 1 часть'!E21</f>
         <v>0</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19" s="137">
         <f>'Информация для бумаг 1 часть'!F21</f>
@@ -8608,16 +8907,16 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="92" t="str">
-        <f>'Cписок для приказа 1 часть'!B22</f>
-        <v xml:space="preserve">  </v>
+      <c r="A20" s="92" t="e">
+        <f>'Cписок для приказа 1 часть'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B20" s="137">
         <f>'Информация для бумаг 1 часть'!E22</f>
         <v>0</v>
       </c>
       <c r="C20" s="137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20" s="137">
         <f>'Информация для бумаг 1 часть'!F22</f>
@@ -8674,25 +8973,25 @@
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1">
       <c r="B1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -8701,13 +9000,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>116</v>
@@ -8716,43 +9015,43 @@
         <v>11</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
@@ -8801,7 +9100,7 @@
         <v>24</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T2" s="5">
         <v>4018281460</v>
@@ -8810,19 +9109,19 @@
         <v>19</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y2" s="5">
         <v>89219942973</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AE2" s="21" t="str">
         <f>CONCATENATE(V2," ",W2," ",X2)</f>
@@ -8870,28 +9169,28 @@
         <v>39367</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T3" s="32">
         <v>4022050606</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W3" s="32" t="s">
         <v>75</v>
       </c>
       <c r="X3" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y3" s="28">
         <v>89052006465</v>
       </c>
       <c r="Z3" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AE3" s="21" t="str">
         <f>CONCATENATE(V3," ",W3," ",X3)</f>
@@ -8940,30 +9239,30 @@
         <v>38553</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T4" s="5">
         <v>4019397258</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="Y4" s="5">
         <v>89213205528</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -9017,32 +9316,32 @@
         <v>39849</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T5" s="34" t="s">
         <v>42</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="X5" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="Y5" s="5">
         <v>89052622652</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -9055,10 +9354,10 @@
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
@@ -9088,35 +9387,35 @@
         <v>89112625350</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R6" s="8">
         <v>39462</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T6" s="35">
         <v>4022067610</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="X6" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="Y6" s="5">
         <v>89219703060</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AB6" s="22"/>
       <c r="AC6" s="6"/>
@@ -9169,7 +9468,7 @@
         <v>39166</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T7" s="6">
         <v>4020831130</v>
@@ -9178,7 +9477,7 @@
         <v>46</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>48</v>
@@ -9232,13 +9531,13 @@
         <v>38917</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T8" s="23">
         <v>4002634542</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="W8" s="23" t="s">
         <v>75</v>
@@ -9298,19 +9597,19 @@
         <v>40363</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>62</v>
       </c>
       <c r="U9" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="W9" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>45</v>
@@ -9319,10 +9618,10 @@
         <v>89213323160</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB9" s="22"/>
       <c r="AC9" s="6"/>
@@ -9336,13 +9635,13 @@
     </row>
     <row r="10" spans="2:33">
       <c r="B10" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
@@ -9367,31 +9666,31 @@
         <v>89259175393</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R10" s="10">
         <v>39581</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T10" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V10" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="X10" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="Y10" s="5">
         <v>89165382822</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AE10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -9400,10 +9699,10 @@
     </row>
     <row r="11" spans="2:33" hidden="1">
       <c r="B11" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>31</v>
@@ -9424,7 +9723,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O11" s="44">
         <v>7</v>
@@ -9433,22 +9732,22 @@
         <v>89218718088</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R11" s="8">
         <v>39916</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T11" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>80</v>
@@ -9460,13 +9759,13 @@
         <v>89213290657</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
@@ -9479,13 +9778,13 @@
     </row>
     <row r="12" spans="2:33">
       <c r="B12" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23">
@@ -9510,22 +9809,22 @@
         <v>89219583612</v>
       </c>
       <c r="Q12" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R12" s="11">
         <v>38933</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T12" s="6">
         <v>4020668443</v>
       </c>
       <c r="V12" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="W12" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="X12" s="38" t="s">
         <v>95</v>
@@ -9535,7 +9834,7 @@
       </c>
       <c r="Z12" s="23"/>
       <c r="AB12" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AE12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -9579,36 +9878,36 @@
         <v>89313127300</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="R13" s="10">
         <v>40070</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>70</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="X13" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="Y13" s="5">
         <v>89213409406</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AA13" s="6"/>
       <c r="AB13" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
@@ -9652,34 +9951,34 @@
         <v>89610752525</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R14" s="10">
         <v>39331</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T14" s="6">
         <v>4021966729</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Y14" s="5">
         <v>89610717771</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AB14" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AE14" s="21" t="str">
         <f t="shared" si="0"/>
@@ -9729,7 +10028,7 @@
         <v>38982</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T15" s="23">
         <v>4020691039</v>
@@ -9741,14 +10040,14 @@
         <v>47</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Y15" s="40">
         <v>89818417041</v>
       </c>
       <c r="Z15" s="23"/>
       <c r="AB15" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AE15" s="21" t="str">
         <f t="shared" si="0"/>
@@ -9757,13 +10056,13 @@
     </row>
     <row r="16" spans="2:33">
       <c r="B16" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="25">
@@ -9788,40 +10087,40 @@
         <v>89200043637</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="R16" s="8">
         <v>39810</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T16" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U16" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="W16" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="X16" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="Y16" s="5">
         <v>89914876053</v>
       </c>
       <c r="Z16" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AB16" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
@@ -9875,7 +10174,7 @@
         <v>40195</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>84</v>
@@ -9885,20 +10184,20 @@
         <v>79</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Y17" s="5">
         <v>89657737525</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA17" s="6"/>
       <c r="AB17" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -9948,40 +10247,40 @@
         <v>89817032760</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R18" s="8">
         <v>39529</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T18" s="6">
         <v>4022149794</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>85</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Y18" s="5">
         <v>89111407222</v>
       </c>
       <c r="Z18" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -10026,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="14" t="s">
         <v>91</v>
@@ -10035,23 +10334,23 @@
         <v>38989</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T19" s="28">
         <v>4020684651</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="W19" s="14" t="s">
         <v>47</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Z19" s="23"/>
       <c r="AA19" s="6"/>
@@ -10108,34 +10407,34 @@
         <v>39987</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>98</v>
       </c>
       <c r="U20" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="X20" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="Y20" s="5">
         <v>89118110171</v>
       </c>
       <c r="Z20" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
@@ -10148,13 +10447,13 @@
     </row>
     <row r="21" spans="2:33" hidden="1">
       <c r="B21" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -10177,31 +10476,31 @@
         <v>89319803214</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R21" s="10">
         <v>39485</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T21" s="35">
         <v>4022119129</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>33</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Y21" s="5">
         <v>89213132221</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AE21" s="21" t="str">
         <f t="shared" si="0"/>
@@ -10269,23 +10568,23 @@
         <v>89818346175</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R28" s="10">
         <v>38137</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T28" s="5">
         <v>4018085917</v>
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X28" s="6" t="s">
         <v>76</v>
@@ -10338,13 +10637,13 @@
         <v>89111652301</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R29" s="10">
         <v>38434</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T29" s="5">
         <v>4018287872</v>
@@ -10357,13 +10656,13 @@
         <v>20</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Y29" s="5">
         <v>89817910834</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
@@ -10413,25 +10712,25 @@
         <v>38070</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T30" s="5">
         <v>4018029738</v>
       </c>
       <c r="V30" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="X30" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="X30" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="Y30" s="5">
         <v>89218717677</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AE30" s="21" t="str">
         <f>CONCATENATE(V30," ",W30," ",X30)</f>
@@ -10440,13 +10739,13 @@
     </row>
     <row r="31" spans="2:33" hidden="1">
       <c r="B31" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E31" s="27"/>
       <c r="N31" s="30">
@@ -10459,37 +10758,37 @@
         <v>89817406171</v>
       </c>
       <c r="Q31" s="30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R31" s="39">
         <v>39554</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T31" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="U31" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="V31" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="U31" s="26" t="s">
+      <c r="W31" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="V31" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="W31" s="26" t="s">
-        <v>344</v>
-      </c>
       <c r="X31" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Y31" s="42">
         <v>89052274602</v>
       </c>
       <c r="Z31" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AE31" s="21" t="str">
         <f>CONCATENATE(V31," ",W31," ",X31)</f>
@@ -10520,8 +10819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
@@ -10568,7 +10867,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="120"/>
     </row>
@@ -10646,7 +10945,7 @@
         <v>89650953153</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>30</v>
@@ -10747,10 +11046,10 @@
     </row>
     <row r="8" spans="2:16" ht="15">
       <c r="B8" s="48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>31</v>
@@ -10770,10 +11069,10 @@
         <v>89112625350</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N8" s="56">
         <v>89219703060</v>
@@ -10870,13 +11169,13 @@
     </row>
     <row r="11" spans="2:16" ht="15">
       <c r="B11" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>219</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>221</v>
       </c>
       <c r="E11" s="48">
         <v>3</v>
@@ -10893,16 +11192,16 @@
         <v>89259175393</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L11" s="44" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N11" s="56">
         <v>89165382822</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P11" s="55">
         <v>39581</v>
@@ -10910,13 +11209,13 @@
     </row>
     <row r="12" spans="2:16" ht="15">
       <c r="B12" s="50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E12" s="50">
         <v>19</v>
@@ -10933,10 +11232,10 @@
         <v>89219583612</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L12" s="44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N12" s="41">
         <v>89213827100</v>
@@ -11017,7 +11316,7 @@
         <v>89610752525</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L14" s="44" t="s">
         <v>73</v>
@@ -11076,13 +11375,13 @@
     </row>
     <row r="16" spans="2:16" ht="15">
       <c r="B16" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="48" t="s">
         <v>225</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>227</v>
       </c>
       <c r="E16" s="48">
         <v>15</v>
@@ -11099,16 +11398,16 @@
         <v>89200043637</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L16" s="44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N16" s="56">
         <v>89914876053</v>
       </c>
       <c r="O16" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P16" s="53">
         <v>39810</v>
@@ -11141,7 +11440,7 @@
         <v>89817032760</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L17" s="44" t="s">
         <v>88</v>
@@ -11180,7 +11479,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K18" s="62" t="s">
         <v>91</v>
@@ -11189,7 +11488,7 @@
         <v>92</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O18" s="59">
         <v>4020684651</v>
@@ -11512,23 +11811,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
     </row>
     <row r="2" spans="1:14" ht="51.95" customHeight="1">
       <c r="A2" s="84" t="s">
@@ -11598,7 +11897,7 @@
       <c r="G3" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="154" t="s">
+      <c r="H3" s="143" t="s">
         <v>125</v>
       </c>
       <c r="I3" s="94">
@@ -11645,7 +11944,7 @@
       <c r="G4" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="155"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="88">
         <v>2</v>
       </c>
@@ -11661,7 +11960,7 @@
       </c>
       <c r="N4" s="112"/>
     </row>
-    <row r="5" spans="1:14" s="76" customFormat="1" ht="24">
+    <row r="5" spans="1:14" s="76" customFormat="1" ht="15.75">
       <c r="A5" s="88">
         <v>3</v>
       </c>
@@ -11688,7 +11987,7 @@
       <c r="G5" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="155"/>
+      <c r="H5" s="144"/>
       <c r="I5" s="94">
         <v>3</v>
       </c>
@@ -11733,7 +12032,7 @@
       <c r="G6" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="155"/>
+      <c r="H6" s="144"/>
       <c r="I6" s="94"/>
       <c r="J6" s="109"/>
       <c r="K6" s="110"/>
@@ -11768,7 +12067,7 @@
       <c r="G7" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="155"/>
+      <c r="H7" s="144"/>
       <c r="I7" s="88"/>
       <c r="J7" s="109"/>
       <c r="K7" s="110"/>
@@ -11803,7 +12102,7 @@
       <c r="G8" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="155"/>
+      <c r="H8" s="144"/>
       <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:14" s="76" customFormat="1">
@@ -11833,7 +12132,7 @@
       <c r="G9" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="155"/>
+      <c r="H9" s="144"/>
       <c r="I9" s="94"/>
       <c r="J9" s="94"/>
       <c r="K9" s="94"/>
@@ -11867,7 +12166,7 @@
       <c r="G10" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="155"/>
+      <c r="H10" s="144"/>
       <c r="I10" s="94"/>
       <c r="J10" s="94"/>
       <c r="K10" s="94"/>
@@ -11901,7 +12200,7 @@
       <c r="G11" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="155"/>
+      <c r="H11" s="144"/>
       <c r="I11" s="94"/>
       <c r="J11" s="94"/>
       <c r="K11" s="94"/>
@@ -11935,7 +12234,7 @@
       <c r="G12" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="155"/>
+      <c r="H12" s="144"/>
       <c r="I12" s="94"/>
       <c r="J12" s="94"/>
       <c r="K12" s="94"/>
@@ -11969,7 +12268,7 @@
       <c r="G13" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="155"/>
+      <c r="H13" s="144"/>
       <c r="I13" s="94"/>
       <c r="J13" s="94"/>
       <c r="K13" s="94"/>
@@ -12003,14 +12302,14 @@
       <c r="G14" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="155"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="94"/>
       <c r="J14" s="94"/>
       <c r="K14" s="94"/>
       <c r="L14" s="94"/>
       <c r="M14" s="94"/>
     </row>
-    <row r="15" spans="1:14" s="76" customFormat="1">
+    <row r="15" spans="1:14" s="76" customFormat="1" ht="24">
       <c r="A15" s="88">
         <v>13</v>
       </c>
@@ -12037,7 +12336,7 @@
       <c r="G15" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="155"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="94"/>
       <c r="J15" s="94"/>
       <c r="K15" s="94"/>
@@ -12071,14 +12370,14 @@
       <c r="G16" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="155"/>
+      <c r="H16" s="144"/>
       <c r="I16" s="94"/>
       <c r="J16" s="94"/>
       <c r="K16" s="94"/>
       <c r="L16" s="94"/>
       <c r="M16" s="94"/>
     </row>
-    <row r="17" spans="1:13" s="76" customFormat="1" ht="24">
+    <row r="17" spans="1:13" s="76" customFormat="1">
       <c r="A17" s="88">
         <v>15</v>
       </c>
@@ -12105,7 +12404,7 @@
       <c r="G17" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="155"/>
+      <c r="H17" s="144"/>
       <c r="I17" s="94"/>
       <c r="J17" s="94"/>
       <c r="K17" s="94"/>
@@ -12139,7 +12438,7 @@
       <c r="G18" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="155"/>
+      <c r="H18" s="144"/>
       <c r="I18" s="94"/>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
@@ -12173,14 +12472,14 @@
       <c r="G19" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="155"/>
+      <c r="H19" s="144"/>
       <c r="I19" s="94"/>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
       <c r="L19" s="94"/>
       <c r="M19" s="94"/>
     </row>
-    <row r="20" spans="1:13" s="76" customFormat="1" ht="24">
+    <row r="20" spans="1:13" s="76" customFormat="1">
       <c r="A20" s="94">
         <v>18</v>
       </c>
@@ -12207,7 +12506,7 @@
       <c r="G20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="155"/>
+      <c r="H20" s="144"/>
       <c r="I20" s="94"/>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
@@ -12216,15 +12515,15 @@
     </row>
     <row r="21" spans="1:13" s="76" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="88"/>
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
       <c r="G21" s="93"/>
-      <c r="H21" s="155"/>
+      <c r="H21" s="144"/>
       <c r="I21" s="94"/>
       <c r="J21" s="94"/>
       <c r="K21" s="94"/>
@@ -12256,7 +12555,7 @@
       <c r="G22" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="155"/>
+      <c r="H22" s="144"/>
       <c r="I22" s="94"/>
       <c r="J22" s="94"/>
       <c r="K22" s="94"/>
@@ -12288,7 +12587,7 @@
       <c r="G23" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="155"/>
+      <c r="H23" s="144"/>
       <c r="I23" s="94"/>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
@@ -12320,7 +12619,7 @@
       <c r="G24" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="155"/>
+      <c r="H24" s="144"/>
       <c r="I24" s="94"/>
       <c r="J24" s="94"/>
       <c r="K24" s="94"/>
@@ -12352,7 +12651,7 @@
       <c r="G25" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="155"/>
+      <c r="H25" s="144"/>
       <c r="I25" s="94"/>
       <c r="J25" s="94"/>
       <c r="K25" s="94"/>
@@ -12384,7 +12683,7 @@
       <c r="G26" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="155"/>
+      <c r="H26" s="144"/>
       <c r="I26" s="94"/>
       <c r="J26" s="94"/>
       <c r="K26" s="94"/>
@@ -12394,7 +12693,7 @@
     <row r="27" spans="1:13" s="76" customFormat="1" ht="12">
       <c r="A27" s="98"/>
       <c r="G27" s="99"/>
-      <c r="H27" s="155"/>
+      <c r="H27" s="144"/>
       <c r="I27" s="94"/>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -12408,13 +12707,13 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C28" s="90"/>
-      <c r="D28" s="145" t="s">
+      <c r="D28" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="146"/>
+      <c r="E28" s="151"/>
       <c r="F28" s="101"/>
       <c r="G28" s="93"/>
-      <c r="H28" s="155"/>
+      <c r="H28" s="144"/>
       <c r="I28" s="94"/>
       <c r="J28" s="94"/>
       <c r="K28" s="94"/>
@@ -12428,20 +12727,20 @@
         <v>Котельникова Валентина Сергеевна</v>
       </c>
       <c r="C29" s="90"/>
-      <c r="D29" s="147" t="s">
+      <c r="D29" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="148"/>
+      <c r="E29" s="153"/>
       <c r="F29" s="101"/>
       <c r="G29" s="93"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="149" t="s">
+      <c r="H29" s="144"/>
+      <c r="I29" s="154" t="s">
         <v>136</v>
       </c>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="151"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="156"/>
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="102" t="s">
@@ -12453,7 +12752,7 @@
       <c r="E30" s="103"/>
       <c r="F30" s="103"/>
       <c r="G30" s="103"/>
-      <c r="H30" s="156"/>
+      <c r="H30" s="145"/>
       <c r="I30" s="92"/>
       <c r="J30" s="92"/>
       <c r="K30" s="92"/>
@@ -12461,10 +12760,10 @@
       <c r="M30" s="92"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="153"/>
+      <c r="B31" s="142"/>
       <c r="C31" s="66">
         <f>'Информация для бумаг 2 часть'!C30</f>
         <v>0</v>
@@ -12552,87 +12851,87 @@
       <c r="A1" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
       <c r="G2" s="69"/>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="168"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
       <c r="G4" s="69"/>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="168"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
     </row>
     <row r="6" spans="1:14" ht="18.75">
-      <c r="A6" s="168"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="H6" s="157" t="s">
+      <c r="A6" s="158"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="H6" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="70" t="s">
@@ -12643,27 +12942,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="164" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="169" t="s">
+      <c r="A8" s="168" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
       <c r="H8" s="71" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="164"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="174"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="164"/>
       <c r="H9" s="68" t="s">
         <v>153</v>
       </c>
@@ -12675,35 +12974,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="165" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="175" t="s">
+      <c r="A10" s="169" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
       <c r="H10" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="159" t="str">
+      <c r="J10" s="175" t="str">
         <f>'Информация для бумаг 2 часть'!C3</f>
         <v>Санкт-Петербург - Кандалакша-Лувеньга-Ряжков-Воронья губа-Княжая-Лувеньга-Кандалакша- Санкт-Петербург</v>
       </c>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="166"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
       <c r="H11" s="73" t="s">
         <v>158</v>
       </c>
@@ -12717,19 +13016,19 @@
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1">
       <c r="A12" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="161" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="H12" s="162" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="171" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="H12" s="172" t="s">
         <v>162</v>
       </c>
-      <c r="I12" s="162"/>
+      <c r="I12" s="172"/>
       <c r="J12" s="80">
         <f>'Информация для бумаг 2 часть'!C2</f>
         <v>44776</v>
@@ -12743,42 +13042,42 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="164" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="176" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
+      <c r="A13" s="168" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="166"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
       <c r="H14" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="163" t="str">
+      <c r="K14" s="173" t="str">
         <f>'Информация для бумаг 2 часть'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="166"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
       <c r="K15" s="73" t="s">
         <v>104</v>
       </c>
@@ -12788,68 +13087,68 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A16" s="166" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="175" t="s">
+      <c r="A16" s="170" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
       <c r="H16" s="76" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="166"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
       <c r="H17" s="77" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="166"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
+      <c r="A18" s="170"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
     </row>
     <row r="19" spans="1:14" ht="15.75">
-      <c r="A19" s="166"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
+      <c r="A19" s="170"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
       <c r="H19" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="163" t="str">
+      <c r="K19" s="173" t="str">
         <f>'Информация для бумаг 2 часть'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="165">
+      <c r="A20" s="169">
         <v>44797</v>
       </c>
-      <c r="B20" s="175" t="s">
+      <c r="B20" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
       <c r="K20" s="73" t="s">
         <v>104</v>
       </c>
@@ -12859,46 +13158,46 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="166"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A22" s="166"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="H22" s="157" t="s">
+      <c r="A22" s="170"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="H22" s="167" t="s">
         <v>173</v>
       </c>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A23" s="166"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="H23" s="157" t="s">
+      <c r="A23" s="170"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="H23" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
     </row>
     <row r="25" spans="1:14" ht="15.75">
       <c r="H25" s="75" t="s">
@@ -12965,11 +13264,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B13:F15"/>
-    <mergeCell ref="B16:F19"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -12982,11 +13281,11 @@
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F15"/>
+    <mergeCell ref="B16:F19"/>
   </mergeCells>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
